--- a/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-29.xlsx
+++ b/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25658C-ECE5-438A-A630-672FE19095E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF5113-376C-4409-BAD9-A4DE2ACAA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" tabRatio="652" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1403">
   <si>
     <t>시가총액</t>
   </si>
@@ -1399,7 +1399,7 @@
     <t>40대 직장인 A씨는 독립한지 꽤 되긴 했지만 노후 준비는 신경 쓰지 못 했다. 지금껏 해온 직장생활 만큼 더 하면 은퇴를 생각해야 하..</t>
   </si>
   <si>
-    <t>제주항공 여객기 사고로 인한 투자자 불안정과 한국 증시의 부진, 그리고 제주항공의 신속한 유가족 지원 대응 등이 언급되었습니다.</t>
+    <t>어제의 증시 뉴스는 "여행과 항공주가 탄핵과 항공 참사로 투자 심리가 크게 위축됨"으로 요약할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3436,6 +3436,970 @@
   </si>
   <si>
     <t>https://finance.naver.com/sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241224800160</t>
+  </si>
+  <si>
+    <t>단일판매ㆍ공급계약체결(자율공시)</t>
+  </si>
+  <si>
+    <t>2024.12.24</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216800383</t>
+  </si>
+  <si>
+    <t>주주명부폐쇄기간또는기준일설정</t>
+  </si>
+  <si>
+    <t>2024.12.16</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분기보고서 (2024.09) </t>
+  </si>
+  <si>
+    <t>2024.11.14</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241227000377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[기재정정]분기보고서 (2024.09) </t>
+  </si>
+  <si>
+    <t>2024.12.27</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241202000058</t>
+  </si>
+  <si>
+    <t>대규모기업집단현황공시[분기별공시(개별회사용)]</t>
+  </si>
+  <si>
+    <t>2024.12.02</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216801555</t>
+  </si>
+  <si>
+    <t>[기재정정]단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>동양</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241204800135</t>
+  </si>
+  <si>
+    <t>2024.12.04</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241128000813</t>
+  </si>
+  <si>
+    <t>2024.11.28</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001386</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005524213</t>
+  </si>
+  <si>
+    <t>[특징주]금호전기, 유상증자로 재무구조 개선기대…9% 상승</t>
+  </si>
+  <si>
+    <t>아시아경제</t>
+  </si>
+  <si>
+    <t>2024.12.27 11:33</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/029/0002925573</t>
+  </si>
+  <si>
+    <t>환율 1470원에 정치도 불안…코스피 0.5% 하락 출발</t>
+  </si>
+  <si>
+    <t>디지털타임스</t>
+  </si>
+  <si>
+    <t>2024.12.27 09:11</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241226000569</t>
+  </si>
+  <si>
+    <t>소액공모공시서류(지분증권)</t>
+  </si>
+  <si>
+    <t>2024.12.26</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241226000520</t>
+  </si>
+  <si>
+    <t>주요사항보고서(유상증자결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241206000587</t>
+  </si>
+  <si>
+    <t>[첨부정정]주요사항보고서(전환사채권발행결정)</t>
+  </si>
+  <si>
+    <t>2024.12.06</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001625</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241113800332</t>
+  </si>
+  <si>
+    <t>임시주주총회결과</t>
+  </si>
+  <si>
+    <t>2024.11.13</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241106000277</t>
+  </si>
+  <si>
+    <t>[기재정정]주요사항보고서(전환사채권발행결정)</t>
+  </si>
+  <si>
+    <t>2024.11.06</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241104800305</t>
+  </si>
+  <si>
+    <t>기타경영사항(자율공시)</t>
+  </si>
+  <si>
+    <t>2024.11.04</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>2024.12.29 11:27</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/023/0003879026</t>
+  </si>
+  <si>
+    <t>[경제계 인사] 하나금융지주 외</t>
+  </si>
+  <si>
+    <t>조선일보</t>
+  </si>
+  <si>
+    <t>2024.12.28 00:33</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0005134046</t>
+  </si>
+  <si>
+    <t>[인사]다올투자증권</t>
+  </si>
+  <si>
+    <t>머니투데이</t>
+  </si>
+  <si>
+    <t>2024.12.27 16:23</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/031/0000896935</t>
+  </si>
+  <si>
+    <t>금투협, 내년 최종호가수익률 보고회사에 NH·케이프·리딩證 추가</t>
+  </si>
+  <si>
+    <t>아이뉴스24</t>
+  </si>
+  <si>
+    <t>2024.12.27 15:25</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005524287</t>
+  </si>
+  <si>
+    <t>금투협, 내년 상반기 채권 호가수익률 보고회사 10곳 선정</t>
+  </si>
+  <si>
+    <t>2024.12.27 13:37</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005075212</t>
+  </si>
+  <si>
+    <t>KB증권 이어 NH투자증권도 상근감사 없앤다</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>2024.12.27 11:27</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/050/0000084287</t>
+  </si>
+  <si>
+    <t>해소한다던 K-디스카운트는 어쩌다 ‘곱빼기’가 됐나 [2024 증시 결...</t>
+  </si>
+  <si>
+    <t>한경비즈니스</t>
+  </si>
+  <si>
+    <t>2024.12.27 08:45</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/417/0001047952</t>
+  </si>
+  <si>
+    <t>1465원' 원/달러 환율 천장 뚫었다… 한덕수 대행 탄핵 기로에 휘...</t>
+  </si>
+  <si>
+    <t>머니S</t>
+  </si>
+  <si>
+    <t>2024.12.27 06:05</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241224000260</t>
+  </si>
+  <si>
+    <t>임원ㆍ주요주주특정증권등소유상황보고서</t>
+  </si>
+  <si>
+    <t>허형욱</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241223000225</t>
+  </si>
+  <si>
+    <t>이선범</t>
+  </si>
+  <si>
+    <t>2024.12.23</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000230</t>
+  </si>
+  <si>
+    <t>이종서</t>
+  </si>
+  <si>
+    <t>2024.12.20</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000225</t>
+  </si>
+  <si>
+    <t>장정욱</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000203</t>
+  </si>
+  <si>
+    <t>윤신영</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241218000240</t>
+  </si>
+  <si>
+    <t>주식등의대량보유상황보고서(일반)</t>
+  </si>
+  <si>
+    <t>이병철</t>
+  </si>
+  <si>
+    <t>2024.12.18</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241217000277</t>
+  </si>
+  <si>
+    <t>김진태</t>
+  </si>
+  <si>
+    <t>2024.12.17</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241217000270</t>
+  </si>
+  <si>
+    <t>김형남</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216800962</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213801329</t>
+  </si>
+  <si>
+    <t>최대주주등소유주식변동신고서</t>
+  </si>
+  <si>
+    <t>2024.12.13</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241206000176</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241205800273</t>
+  </si>
+  <si>
+    <t>2024.12.05</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241122000128</t>
+  </si>
+  <si>
+    <t>황준호</t>
+  </si>
+  <si>
+    <t>2024.11.22</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119800445</t>
+  </si>
+  <si>
+    <t>2024.11.19</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114000357</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241224800142</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241224000148</t>
+  </si>
+  <si>
+    <t>SUH ANNY</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216000020</t>
+  </si>
+  <si>
+    <t>갑도물산</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216800154</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241210800239</t>
+  </si>
+  <si>
+    <t>2024.12.10</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241210000179</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241209800143</t>
+  </si>
+  <si>
+    <t>2024.12.09</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241209000131</t>
+  </si>
+  <si>
+    <t>[기재정정]임원ㆍ주요주주특정증권등소유상황보고서</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241203800225</t>
+  </si>
+  <si>
+    <t>타법인주식및출자증권취득결정</t>
+  </si>
+  <si>
+    <t>2024.12.03</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241203800055</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241203800038</t>
+  </si>
+  <si>
+    <t>[기재정정]투자판단관련주요경영사항</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001221</t>
+  </si>
+  <si>
+    <t>서정석</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001190</t>
+  </si>
+  <si>
+    <t>서명환</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001186</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114801242</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213000263</t>
+  </si>
+  <si>
+    <t>증권발행실적보고서</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213800774</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213800202</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213800151</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241212000400</t>
+  </si>
+  <si>
+    <t>투자설명서(일괄신고)</t>
+  </si>
+  <si>
+    <t>2024.12.12</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241212000388</t>
+  </si>
+  <si>
+    <t>일괄신고추가서류</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002372</t>
+  </si>
+  <si>
+    <t>[기재정정]일괄신고서</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002142</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216801330</t>
+  </si>
+  <si>
+    <t>기타경영사항(자율공시) (배당기준일 변경 안내)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216801302</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002523</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005075407</t>
+  </si>
+  <si>
+    <t>"AI 열풍 이어 받는다"…양자컴 관련주 '들썩'</t>
+  </si>
+  <si>
+    <t>2024.12.27 17:52</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005075167</t>
+  </si>
+  <si>
+    <t>미중 경쟁 격화 조짐에…양자컴 관련주 '줄상승'</t>
+  </si>
+  <si>
+    <t>2024.12.27 09:59</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/374/0000417702</t>
+  </si>
+  <si>
+    <t>[이 시각 시황] 뉴욕증시, 양자컴 관련주 '활활'…국내 관련주 '펄펄... 
+동영상기사</t>
+  </si>
+  <si>
+    <t>SBS Biz</t>
+  </si>
+  <si>
+    <t>2024.12.27 09:55</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005914028</t>
+  </si>
+  <si>
+    <t>[특징주] '양자컴' 둘러싼 美中 경쟁 격화…관련주 동반 강세</t>
+  </si>
+  <si>
+    <t>2024.12.27 09:12</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900122</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001085</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012984688</t>
+  </si>
+  <si>
+    <t>양자컴퓨팅 테마주' 한국첨단소재, 52주 신고가[핫스탁](종합)</t>
+  </si>
+  <si>
+    <t>뉴시스</t>
+  </si>
+  <si>
+    <t>2024.12.27 15:47</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0005133772</t>
+  </si>
+  <si>
+    <t>한국첨단소재, 일반공모 유상증자 1.6조원 몰려...경쟁률 792 대 ...</t>
+  </si>
+  <si>
+    <t>2024.12.27 08:44</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241227000575</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241227900676</t>
+  </si>
+  <si>
+    <t>증권발행결과(자율공시)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241226900579</t>
+  </si>
+  <si>
+    <t>유상증자또는주식관련사채등의청약결과(자율공시)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241219900564</t>
+  </si>
+  <si>
+    <t>2024.12.19</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216000182</t>
+  </si>
+  <si>
+    <t>[기재정정]투자설명서</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216000171</t>
+  </si>
+  <si>
+    <t>[기재정정]주요사항보고서(유상증자결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216000137</t>
+  </si>
+  <si>
+    <t>[발행조건확정]증권신고서(지분증권)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900153</t>
+  </si>
+  <si>
+    <t>유상증자최종발행가액확정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213900955</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241118000092</t>
+  </si>
+  <si>
+    <t>2024.11.18</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241111900432</t>
+  </si>
+  <si>
+    <t>권리락 (유상증자)</t>
+  </si>
+  <si>
+    <t>코스닥시장본부</t>
+  </si>
+  <si>
+    <t>2024.11.11</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241111900140</t>
+  </si>
+  <si>
+    <t>유상증자1차발행가액결정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241227000743</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241227900886</t>
+  </si>
+  <si>
+    <t>전환사채(해외전환사채포함)발행후만기전사채취득</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241223900117</t>
+  </si>
+  <si>
+    <t>단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220900869</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241217900708</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216901814</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900718</t>
+  </si>
+  <si>
+    <t>전환가액의조정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213900336</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241209900540</t>
+  </si>
+  <si>
+    <t>기타주요경영사항 (제4회차 전환사채권 발행결정 철회)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241209000364</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241128900752</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241126900575</t>
+  </si>
+  <si>
+    <t>[기재정정]전환가액의조정</t>
+  </si>
+  <si>
+    <t>2024.11.26</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001283</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241101900219</t>
+  </si>
+  <si>
+    <t>2024.11.01</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216000191</t>
+  </si>
+  <si>
+    <t>크레오에스지</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900655</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241203000191</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002057</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241101000220</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/243/0000070408</t>
+  </si>
+  <si>
+    <t>‘성장성’ 주목한 진단 기업…동반진단 사업 박차</t>
+  </si>
+  <si>
+    <t>이코노미스트</t>
+  </si>
+  <si>
+    <t>2024.12.29 10:00</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005914294</t>
+  </si>
+  <si>
+    <t>파인메딕스 상장 첫날 고공상승, 이엔셀 CMO 수주계약에 상한가[바이....</t>
+  </si>
+  <si>
+    <t>2024.12.27 14:10</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005075164</t>
+  </si>
+  <si>
+    <t>젠큐릭스, 자회사 지분 매각 소식에 연이틀 상한가</t>
+  </si>
+  <si>
+    <t>2024.12.27 09:49</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241226000518</t>
+  </si>
+  <si>
+    <t>합병등종료보고서 (자산양수도)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241224000384</t>
+  </si>
+  <si>
+    <t>주요사항보고서(타법인주식및출자증권양도결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900912</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241202900617</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241202900613</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241122000581</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241122900573</t>
+  </si>
+  <si>
+    <t>유상증자결정(종속회사의주요경영사항)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241122900541</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002554</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241211900224</t>
+  </si>
+  <si>
+    <t>2024.12.11</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002306</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114000877</t>
+  </si>
+  <si>
+    <t>성기혁</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241111000397</t>
+  </si>
+  <si>
+    <t>자기주식취득결과보고서</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216901603</t>
+  </si>
+  <si>
+    <t>현금ㆍ현물배당을위한주주명부폐쇄(기준일)결정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900177</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241128900822</t>
+  </si>
+  <si>
+    <t>[기재정정]최대주주변경을수반하는주식담보제공계약체결</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002567</t>
+  </si>
+  <si>
+    <t>주요사항보고서(자기주식취득신탁계약체결결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002409</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000175</t>
+  </si>
+  <si>
+    <t>황석보</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216901649</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241212000134</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000072</t>
+  </si>
+  <si>
+    <t>문상우</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000068</t>
+  </si>
+  <si>
+    <t>원준구</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000066</t>
+  </si>
+  <si>
+    <t>진홍균</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000065</t>
+  </si>
+  <si>
+    <t>최거승</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000063</t>
+  </si>
+  <si>
+    <t>최태극</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000062</t>
+  </si>
+  <si>
+    <t>박민철</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000061</t>
+  </si>
+  <si>
+    <t>강덕림</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000060</t>
+  </si>
+  <si>
+    <t>허진</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000058</t>
+  </si>
+  <si>
+    <t>김대호</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000054</t>
+  </si>
+  <si>
+    <t>이재국</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000050</t>
+  </si>
+  <si>
+    <t>김의용</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119000045</t>
+  </si>
+  <si>
+    <t>이일남</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213901435</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213000425</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213901397</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213901393</t>
+  </si>
+  <si>
+    <t>주주총회소집결의 (임시주주총회)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241126900347</t>
+  </si>
+  <si>
+    <t>주권매매거래정지해제 (감자 주권 변경상장)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241126000453</t>
+  </si>
+  <si>
+    <t>박철승</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241119900491</t>
+  </si>
+  <si>
+    <t>감자완료</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114001789</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241105900554</t>
+  </si>
+  <si>
+    <t>주권매매거래정지 (주식의 병합, 분할 등 전자등록 변경, 말소)</t>
+  </si>
+  <si>
+    <t>2024.11.05</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003271885</t>
+  </si>
+  <si>
+    <t>SKT·KT 키즈폰 출격···미래 고객 선점 나선다</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>2024.12.29 17:01</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241216900198</t>
+  </si>
+  <si>
+    <t>대표이사변경</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241213900094</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241121000438</t>
+  </si>
+  <si>
+    <t>신탁계약해지결과보고서</t>
+  </si>
+  <si>
+    <t>2024.11.21</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241114002127</t>
   </si>
 </sst>
 </file>
@@ -4058,17 +5022,23 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4094,14 +5064,8 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5266,7 +6230,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBE4346-257B-45EE-BA6D-6E96EC3F7554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47B11C9-BC10-4A6D-8C93-212618B904B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +6280,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF05F3CF-4E02-4A9C-BF15-0AC103236545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10815504-4B3B-4ED5-9869-5DF7F5ACFE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5366,7 +6330,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EA1CCE-EFFC-45F7-BE1E-3166F808BC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C83EB0A-CA85-4B5E-B788-A6D33B2342AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,7 +6380,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C871CB-9A21-42A8-8FA9-9191A74C3447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D2A73C-9C73-4EAB-BB13-43FE0561023B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5466,7 +6430,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5412C09C-3C68-4DF8-AEE9-BBEA193F6CBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FE1AC4-AEAD-4306-9E3A-7CE2AECF948B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5516,7 +6480,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691EFFD4-573D-4283-ADD9-48ACC7DED586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8654553-4F71-44C1-9A64-5A8B6AFBB34D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,7 +6530,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6B3A8C-0001-44AF-808E-D87ADB86F349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B713998-504D-4088-94F5-4E10B27FC070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +6580,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6838EDBD-98A9-4897-9E18-53A6940688C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1C3068-F42C-499E-8862-1017B82D0886}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +6630,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB396AD-14FC-436A-9EBE-0A79FC4A180D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618DA8FC-8D85-4467-98A0-C081F25068D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5716,7 +6680,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9326001-3F39-4FAC-83D7-A9B73302BD5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226405F3-CB5F-4C4D-B783-7B62EDA570CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5766,7 +6730,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9817D9ED-642B-4B7D-8EB3-72D57A14F748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7CBA8-A205-4E6A-95D6-63396B2C56B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5816,7 +6780,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD98084D-6A84-4BD2-B74B-0BBB0DD5A038}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0348170A-095B-4FE8-88B9-F448FA97CADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6217,31 +7181,31 @@
         <v>28</v>
       </c>
       <c r="I3" s="77"/>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AB3" s="79" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AB3" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="39"/>
@@ -6296,19 +7260,19 @@
       <c r="AB4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="78" t="str">
+      <c r="AC4" s="90" t="str">
         <f>N5</f>
         <v>코오롱모빌리티그룹우</v>
       </c>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="K5" s="41">
         <v>1</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="83" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="41" t="str">
@@ -6382,7 +7346,7 @@
       <c r="K6" s="47">
         <v>2</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C3,6),"")</f>
         <v>003160</v>
@@ -6454,7 +7418,7 @@
       <c r="K7" s="47">
         <v>3</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C4,6),"")</f>
         <v>000545</v>
@@ -6526,7 +7490,7 @@
       <c r="K8" s="47">
         <v>4</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C5,6),"")</f>
         <v>001527</v>
@@ -6610,7 +7574,7 @@
       <c r="K9" s="47">
         <v>5</v>
       </c>
-      <c r="L9" s="81"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C6,6),"")</f>
         <v>001210</v>
@@ -6686,7 +7650,7 @@
       <c r="K10" s="47">
         <v>6</v>
       </c>
-      <c r="L10" s="81"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C7,6),"")</f>
         <v>030210</v>
@@ -6758,7 +7722,7 @@
       <c r="K11" s="47">
         <v>7</v>
       </c>
-      <c r="L11" s="81"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C8,6),"")</f>
         <v>006345</v>
@@ -6830,7 +7794,7 @@
       <c r="K12" s="47">
         <v>8</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="83"/>
       <c r="M12" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C9,6),"")</f>
         <v>006220</v>
@@ -6902,7 +7866,7 @@
       <c r="K13" s="47">
         <v>9</v>
       </c>
-      <c r="L13" s="81"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C10,6),"")</f>
         <v>000540</v>
@@ -6974,7 +7938,7 @@
       <c r="K14" s="47">
         <v>10</v>
       </c>
-      <c r="L14" s="82"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C11,6),"")</f>
         <v>009580</v>
@@ -7058,7 +8022,7 @@
       <c r="K15" s="41">
         <v>1</v>
       </c>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="82" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="47" t="str">
@@ -7117,9 +8081,9 @@
         <f>IF(ISBLANK(KOSDAQ!C2),"",HYPERLINK(KOSDAQ!C2, "▶"))</f>
         <v>▶</v>
       </c>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
       <c r="AE15" s="48"/>
       <c r="AF15" s="55"/>
     </row>
@@ -7127,7 +8091,7 @@
       <c r="K16" s="47">
         <v>2</v>
       </c>
-      <c r="L16" s="81"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C3,6),"")</f>
         <v>062970</v>
@@ -7184,21 +8148,21 @@
         <f>IF(ISBLANK(KOSDAQ!C3),"",HYPERLINK(KOSDAQ!C3, "▶"))</f>
         <v>▶</v>
       </c>
-      <c r="AB16" s="79" t="s">
+      <c r="AB16" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="79" t="s">
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="AF16" s="79"/>
+      <c r="AF16" s="76"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K17" s="47">
         <v>3</v>
       </c>
-      <c r="L17" s="81"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C4,6),"")</f>
         <v>065570</v>
@@ -7273,7 +8237,7 @@
       <c r="K18" s="47">
         <v>4</v>
       </c>
-      <c r="L18" s="81"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C5,6),"")</f>
         <v>065060</v>
@@ -7351,7 +8315,7 @@
       <c r="K19" s="47">
         <v>5</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C6,6),"")</f>
         <v>229000</v>
@@ -7429,7 +8393,7 @@
       <c r="K20" s="47">
         <v>6</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C7,6),"")</f>
         <v>056360</v>
@@ -7519,7 +8483,7 @@
       <c r="K21" s="47">
         <v>7</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C8,6),"")</f>
         <v>115440</v>
@@ -7597,7 +8561,7 @@
       <c r="K22" s="47">
         <v>8</v>
       </c>
-      <c r="L22" s="81"/>
+      <c r="L22" s="83"/>
       <c r="M22" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C9,6),"")</f>
         <v>437730</v>
@@ -7675,7 +8639,7 @@
       <c r="K23" s="47">
         <v>9</v>
       </c>
-      <c r="L23" s="81"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C10,6),"")</f>
         <v>030350</v>
@@ -7741,16 +8705,16 @@
         <f t="array" ref="AD23">IFERROR(HYPERLINK(INDEX(종목별전자공시!$D$2:$D$200, MATCH(1,--($AC$4=종목별전자공시!$C$2:$C$200)*(ROWS($A$1:A6)=종목별전자공시!$A$2:$A$200),0)),"▶"),"")</f>
         <v/>
       </c>
-      <c r="AE23" s="79" t="s">
+      <c r="AE23" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AF23" s="79"/>
+      <c r="AF23" s="76"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="K24" s="47">
         <v>10</v>
       </c>
-      <c r="L24" s="82"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C11,6),"")</f>
         <v>172670</v>
@@ -7816,11 +8780,11 @@
         <f t="array" ref="AD24">IFERROR(HYPERLINK(INDEX(종목별전자공시!$D$2:$D$200, MATCH(1,--($AC$4=종목별전자공시!$C$2:$C$200)*(ROWS($A$1:A7)=종목별전자공시!$A$2:$A$200),0)),"▶"),"")</f>
         <v/>
       </c>
-      <c r="AE24" s="84" t="str">
+      <c r="AE24" s="86" t="str">
         <f>HYPERLINK("https://www.bok.or.kr/static/jslibrary/pdfjs/viewer.html?file=%2FfileSrc%2Fportal%2F686e75f27bf04f44a8c7c8ad6d32b4bf%2F1%2F65da0166f8334cfe95c57a6e0ea6c4af.pdf","2024년 11월 경제전망보고서(Indigo Book)_FFFFF.pdf")</f>
         <v>2024년 11월 경제전망보고서(Indigo Book)_FFFFF.pdf</v>
       </c>
-      <c r="AF24" s="85"/>
+      <c r="AF24" s="87"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="K25" s="60"/>
@@ -7848,66 +8812,66 @@
         <f t="array" ref="AD25">IFERROR(HYPERLINK(INDEX(종목별전자공시!$D$2:$D$200, MATCH(1,--($AC$4=종목별전자공시!$C$2:$C$200)*(ROWS($A$1:A8)=종목별전자공시!$A$2:$A$200),0)),"▶"),"")</f>
         <v/>
       </c>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
     </row>
     <row r="26" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="K27" s="79" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AB27" s="79" t="s">
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AB27" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="88" t="s">
+      <c r="K28" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
       <c r="AB28" s="38" t="s">
         <v>26</v>
       </c>
@@ -7931,103 +8895,103 @@
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="J29" s="60"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
       <c r="AA29" s="61"/>
       <c r="AB29" s="64" t="str">
         <f t="array" ref="AB29">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A1))),"")</f>
-        <v/>
+        <v>[특징주]금호전기, 유상증자로 재무구조 개선기대…9% 상승</v>
       </c>
       <c r="AC29" s="65"/>
       <c r="AD29" s="65"/>
       <c r="AE29" s="66" t="str">
         <f t="array" ref="AE29">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A1))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF29" s="64" t="str">
         <f t="array" ref="AF29">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A1))),"")</f>
-        <v/>
+        <v>금호전기</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="64" t="str">
         <f t="array" ref="AB30">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A2))),"")</f>
-        <v/>
+        <v>이미 목표가 넘어선 조선주…"고밸류 부담" VS "주도주 부상"</v>
       </c>
       <c r="AC30" s="65"/>
       <c r="AD30" s="65"/>
       <c r="AE30" s="66" t="str">
         <f t="array" ref="AE30">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A2))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF30" s="64" t="str">
         <f t="array" ref="AF30">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A2))),"")</f>
-        <v/>
+        <v>다올투자증권</v>
       </c>
       <c r="AG30" s="61"/>
     </row>
     <row r="31" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
       <c r="AA31" s="61"/>
       <c r="AB31" s="64" t="str">
         <f t="array" ref="AB31">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A3))),"")</f>
-        <v/>
+        <v>"AI 열풍 이어 받는다"…양자컴 관련주 '들썩'</v>
       </c>
       <c r="AC31" s="65"/>
       <c r="AD31" s="65"/>
       <c r="AE31" s="66" t="str">
         <f t="array" ref="AE31">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A3))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF31" s="64" t="str">
         <f t="array" ref="AF31">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A3))),"")</f>
-        <v/>
+        <v>케이씨에스</v>
       </c>
       <c r="AG31" s="61"/>
     </row>
@@ -8057,26 +9021,26 @@
       <c r="AA32" s="61"/>
       <c r="AB32" s="64" t="str">
         <f t="array" ref="AB32">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A4))),"")</f>
-        <v/>
+        <v>"AI 열풍 이어 받는다"…양자컴 관련주 '들썩'</v>
       </c>
       <c r="AC32" s="65"/>
       <c r="AD32" s="65"/>
       <c r="AE32" s="66" t="str">
         <f t="array" ref="AE32">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A4))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF32" s="64" t="str">
         <f t="array" ref="AF32">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A4))),"")</f>
-        <v/>
+        <v>한국첨단소재</v>
       </c>
       <c r="AG32" s="61"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K33" s="76" t="str">
+      <c r="K33" s="78" t="str">
         <f>IFERROR(주요뉴스!$D2,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L33" s="76"/>
+      <c r="L33" s="78"/>
       <c r="M33" s="61" t="str">
         <f>IFERROR(주요뉴스!$A2,"")</f>
         <v>“여행·항공株 어쩌나”…연말 덮친 탄핵·항공 참사에 투자심리 추락 위기</v>
@@ -8100,26 +9064,26 @@
       <c r="AA33" s="61"/>
       <c r="AB33" s="64" t="str">
         <f t="array" ref="AB33">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A5))),"")</f>
-        <v/>
+        <v>‘성장성’ 주목한 진단 기업…동반진단 사업 박차</v>
       </c>
       <c r="AC33" s="65"/>
       <c r="AD33" s="65"/>
       <c r="AE33" s="66" t="str">
         <f t="array" ref="AE33">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A5))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF33" s="64" t="str">
         <f t="array" ref="AF33">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A5))),"")</f>
-        <v/>
+        <v>젠큐릭스</v>
       </c>
       <c r="AG33" s="61"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K34" s="76" t="str">
+      <c r="K34" s="78" t="str">
         <f>IFERROR(주요뉴스!$D3,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="61" t="str">
         <f>IFERROR(주요뉴스!$A3,"")</f>
         <v>최상목 권한대행, 무안공항 사고 관련 3차 중대본 회의 주재</v>
@@ -8143,26 +9107,26 @@
       <c r="AA34" s="61"/>
       <c r="AB34" s="64" t="str">
         <f t="array" ref="AB34">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A6))),"")</f>
-        <v/>
+        <v>"AI 열풍 이어 받는다"…양자컴 관련주 '들썩'</v>
       </c>
       <c r="AC34" s="65"/>
       <c r="AD34" s="65"/>
       <c r="AE34" s="66" t="str">
         <f t="array" ref="AE34">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A6))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF34" s="64" t="str">
         <f t="array" ref="AF34">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A6))),"")</f>
-        <v/>
+        <v>코위버</v>
       </c>
       <c r="AG34" s="61"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K35" s="76" t="str">
+      <c r="K35" s="78" t="str">
         <f>IFERROR(주요뉴스!$D4,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L35" s="76"/>
+      <c r="L35" s="78"/>
       <c r="M35" s="61" t="str">
         <f>IFERROR(주요뉴스!$A4,"")</f>
         <v>곧장 무안 내려간 최상목 권한대행…"특별재난지역 선포 준비"</v>
@@ -8186,26 +9150,26 @@
       <c r="AA35" s="61"/>
       <c r="AB35" s="64" t="str">
         <f t="array" ref="AB35">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A7))),"")</f>
-        <v/>
+        <v>"AI 열풍 이어 받는다"…양자컴 관련주 '들썩'</v>
       </c>
       <c r="AC35" s="65"/>
       <c r="AD35" s="65"/>
       <c r="AE35" s="66" t="str">
         <f t="array" ref="AE35">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A7))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF35" s="64" t="str">
         <f t="array" ref="AF35">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A7))),"")</f>
-        <v/>
+        <v>우리넷</v>
       </c>
       <c r="AG35" s="61"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K36" s="76" t="str">
+      <c r="K36" s="78" t="str">
         <f>IFERROR(주요뉴스!$D5,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L36" s="76"/>
+      <c r="L36" s="78"/>
       <c r="M36" s="61" t="str">
         <f>IFERROR(주요뉴스!$A5,"")</f>
         <v>무안 제주항공 여객기 사고, 원인 규명 얼마나 걸리나</v>
@@ -8229,26 +9193,26 @@
       <c r="AA36" s="61"/>
       <c r="AB36" s="64" t="str">
         <f t="array" ref="AB36">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A8))),"")</f>
-        <v/>
+        <v>SKT·KT 키즈폰 출격···미래 고객 선점 나선다</v>
       </c>
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="66" t="str">
         <f t="array" ref="AE36">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A8))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF36" s="64" t="str">
         <f t="array" ref="AF36">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A8))),"")</f>
-        <v/>
+        <v>에이엘티</v>
       </c>
       <c r="AG36" s="61"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K37" s="76" t="str">
+      <c r="K37" s="78" t="str">
         <f>IFERROR(주요뉴스!$D6,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L37" s="76"/>
+      <c r="L37" s="78"/>
       <c r="M37" s="61" t="str">
         <f>IFERROR(주요뉴스!$A6,"")</f>
         <v>괌 추락 사고 이후 최악…국내 역대 항공기 사고는</v>
@@ -8288,11 +9252,11 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="67"/>
-      <c r="K38" s="76" t="str">
+      <c r="K38" s="78" t="str">
         <f>IFERROR(주요뉴스!$D7,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L38" s="76"/>
+      <c r="L38" s="78"/>
       <c r="M38" s="61" t="str">
         <f>IFERROR(주요뉴스!$A7,"")</f>
         <v>사고 기종은 '보잉 737-800'…2년 전 이어 올해도 사고 다수 발생</v>
@@ -8332,11 +9296,11 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="68"/>
-      <c r="K39" s="76" t="str">
+      <c r="K39" s="78" t="str">
         <f>IFERROR(주요뉴스!$D8,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L39" s="76"/>
+      <c r="L39" s="78"/>
       <c r="M39" s="61" t="str">
         <f>IFERROR(주요뉴스!$A8,"")</f>
         <v>인명피해 왜 컸나 / 수동 랜딩기어 불가능? / 회항 불가능?/ 활주로 짧았나?[뉴스추적]</v>
@@ -8376,11 +9340,11 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="68"/>
-      <c r="K40" s="76" t="str">
+      <c r="K40" s="78" t="str">
         <f>IFERROR(주요뉴스!$D9,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L40" s="76"/>
+      <c r="L40" s="78"/>
       <c r="M40" s="61" t="str">
         <f>IFERROR(주요뉴스!$A9,"")</f>
         <v>제주항공 "이상징후 없었다…260명 유가족 지원팀 투입"</v>
@@ -8420,11 +9384,11 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="68"/>
-      <c r="K41" s="76" t="str">
+      <c r="K41" s="78" t="str">
         <f>IFERROR(주요뉴스!$D10,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L41" s="76"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="61" t="str">
         <f>IFERROR(주요뉴스!$A10,"")</f>
         <v>여객기에 치명적인 '버드 스트라이크'…"최근 6년간 10건 발생" 전국 공항서 가장 많아</v>
@@ -8464,11 +9428,11 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="68"/>
-      <c r="K42" s="76" t="str">
+      <c r="K42" s="78" t="str">
         <f>IFERROR(주요뉴스!$D11,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L42" s="76"/>
+      <c r="L42" s="78"/>
       <c r="M42" s="61" t="str">
         <f>IFERROR(주요뉴스!$A11,"")</f>
         <v>181명 탑승 제주항공 여객기 사고 "구조자 2명 외 대부분 사망 추정"</v>
@@ -8517,11 +9481,11 @@
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
-      <c r="K43" s="76" t="str">
+      <c r="K43" s="78" t="str">
         <f>IFERROR(주요뉴스!$D12,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L43" s="76"/>
+      <c r="L43" s="78"/>
       <c r="M43" s="61" t="str">
         <f>IFERROR(주요뉴스!$A12,"")</f>
         <v>HD현대일렉 376%·제닉 512% 상승… 이차전지 '악몽의 해' [2024 증시결산 下]</v>
@@ -8560,11 +9524,11 @@
       <c r="AG43" s="61"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K44" s="76" t="str">
+      <c r="K44" s="78" t="str">
         <f>IFERROR(주요뉴스!$D13,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L44" s="76"/>
+      <c r="L44" s="78"/>
       <c r="M44" s="61" t="str">
         <f>IFERROR(주요뉴스!$A13,"")</f>
         <v>코스피 6개월째 하락…'1월 효과' 나타날까</v>
@@ -8603,11 +9567,11 @@
       <c r="AG44" s="61"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K45" s="76" t="str">
+      <c r="K45" s="78" t="str">
         <f>IFERROR(주요뉴스!$D14,"")</f>
         <v xml:space="preserve">디지털타임스 </v>
       </c>
-      <c r="L45" s="76"/>
+      <c r="L45" s="78"/>
       <c r="M45" s="61" t="str">
         <f>IFERROR(주요뉴스!$A14,"")</f>
         <v>`일장춘몽` 된 산타랠리, 연초 변동성 유의[가상자산 나침반]</v>
@@ -8646,11 +9610,11 @@
       <c r="AG45" s="61"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K46" s="76" t="str">
+      <c r="K46" s="78" t="str">
         <f>IFERROR(주요뉴스!$D15,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L46" s="76"/>
+      <c r="L46" s="78"/>
       <c r="M46" s="61" t="str">
         <f>IFERROR(주요뉴스!$A15,"")</f>
         <v>양자컴퓨팅 관련 ETF 수익률 12%… 美 대형기술주 강세[ETF 스퀘어]</v>
@@ -8689,11 +9653,11 @@
       <c r="AG46" s="61"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K47" s="76" t="str">
+      <c r="K47" s="78" t="str">
         <f>IFERROR(주요뉴스!$D16,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L47" s="76"/>
+      <c r="L47" s="78"/>
       <c r="M47" s="61" t="str">
         <f>IFERROR(주요뉴스!$A16,"")</f>
         <v>하이일드-月지급 장점 동시에 꾸준한 성과에 현금 흐름까지[이런 펀드 어때요?]</v>
@@ -8732,11 +9696,11 @@
       <c r="AG47" s="61"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K48" s="76" t="str">
+      <c r="K48" s="78" t="str">
         <f>IFERROR(주요뉴스!$D17,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L48" s="76"/>
+      <c r="L48" s="78"/>
       <c r="M48" s="61" t="str">
         <f>IFERROR(주요뉴스!$A17,"")</f>
         <v>40대 직장인 "돈을 모아두기는 했지만… 노후 대책 어떻게 해야할지"[재테크 Q&amp;A]</v>
@@ -8780,23 +9744,17 @@
     <row r="51" spans="31:31" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="K28:Z31"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE24:AF25"/>
-    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="E3:F3"/>
@@ -8813,17 +9771,23 @@
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="K3:Z3"/>
     <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="K28:Z31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -30146,207 +31110,774 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="31"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>1109</v>
+      </c>
       <c r="H2" s="7" t="str">
         <f>IF(ISBLANK($D2),"",HYPERLINK($D2,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G3" s="31"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>1113</v>
+      </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(ISBLANK($D3),"",HYPERLINK($D3,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="31"/>
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>1133</v>
+      </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="31"/>
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>1137</v>
+      </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="31"/>
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>1141</v>
+      </c>
       <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>1145</v>
+      </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="31"/>
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>1148</v>
+      </c>
       <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="31"/>
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>1152</v>
+      </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="31"/>
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>1156</v>
+      </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="31"/>
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>1160</v>
+      </c>
       <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="31"/>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>1241</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="31"/>
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>1244</v>
+      </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>1248</v>
+      </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="31"/>
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>1251</v>
+      </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="31"/>
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>1241</v>
+      </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>1257</v>
+      </c>
       <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>1248</v>
+      </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>1260</v>
+      </c>
       <c r="H19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>1315</v>
+      </c>
       <c r="H20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>1318</v>
+      </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>1321</v>
+      </c>
       <c r="H22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>1241</v>
+      </c>
       <c r="H23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>1244</v>
+      </c>
       <c r="H24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1251</v>
+      </c>
       <c r="H25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>1241</v>
+      </c>
       <c r="H26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>1395</v>
+      </c>
       <c r="H27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>1241</v>
+      </c>
       <c r="H28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>1251</v>
+      </c>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -31418,880 +32949,3756 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="31"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>1085</v>
+      </c>
       <c r="H2" s="7" t="str">
         <f>IF(ISBLANK($D2),"",HYPERLINK($D2,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G3" s="31"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>1088</v>
+      </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(ISBLANK($D3),"",HYPERLINK($D3,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="31"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>1091</v>
+      </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="31"/>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>1094</v>
+      </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="31"/>
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>1088</v>
+      </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="31"/>
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>1102</v>
+      </c>
       <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="31"/>
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>1104</v>
+      </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="31"/>
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>1091</v>
+      </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="31"/>
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>1116</v>
+      </c>
       <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="31"/>
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>1116</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="31"/>
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>1121</v>
+      </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="31"/>
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>1091</v>
+      </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="31"/>
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>1125</v>
+      </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="31"/>
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>1128</v>
+      </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>1131</v>
+      </c>
       <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>1085</v>
+      </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>1166</v>
+      </c>
       <c r="H19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>1169</v>
+      </c>
       <c r="H20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>1169</v>
+      </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>1169</v>
+      </c>
       <c r="H22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>1177</v>
+      </c>
       <c r="H23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>1180</v>
+      </c>
       <c r="H24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1180</v>
+      </c>
       <c r="H25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>1121</v>
+      </c>
       <c r="H28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>1189</v>
+      </c>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>1192</v>
+      </c>
       <c r="H30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>1085</v>
+      </c>
       <c r="H33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>1085</v>
+      </c>
       <c r="H34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>1203</v>
+      </c>
       <c r="H37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>1203</v>
+      </c>
       <c r="H38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>1206</v>
+      </c>
       <c r="H39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>1206</v>
+      </c>
       <c r="H40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>1211</v>
+      </c>
       <c r="H41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>1211</v>
+      </c>
       <c r="H42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>1211</v>
+      </c>
       <c r="H43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>1228</v>
+      </c>
       <c r="H52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>1228</v>
+      </c>
       <c r="H53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>1094</v>
+      </c>
       <c r="H56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E57" s="18"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>1097</v>
+      </c>
       <c r="H57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>1094</v>
+      </c>
       <c r="H63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>1094</v>
+      </c>
       <c r="H64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>1116</v>
+      </c>
       <c r="H65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>1267</v>
+      </c>
       <c r="H66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H67" s="7" t="str">
         <f t="shared" ref="H67:H130" si="1">IF(ISBLANK($D67),"",HYPERLINK($D67,"▶"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H70" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>1278</v>
+      </c>
       <c r="H72" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>1282</v>
+      </c>
       <c r="H73" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>1282</v>
+      </c>
       <c r="H74" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>1094</v>
+      </c>
       <c r="H75" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>1094</v>
+      </c>
       <c r="H76" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>1166</v>
+      </c>
       <c r="H77" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>1169</v>
+      </c>
       <c r="H78" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>1180</v>
+      </c>
       <c r="H79" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H80" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H81" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H82" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>1206</v>
+      </c>
       <c r="H83" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>10</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>1206</v>
+      </c>
       <c r="H84" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>1104</v>
+      </c>
       <c r="H85" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>12</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>1302</v>
+      </c>
       <c r="H86" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>13</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H87" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>14</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>1305</v>
+      </c>
       <c r="H88" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G89" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H89" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H90" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>1211</v>
+      </c>
       <c r="H91" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H92" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>1305</v>
+      </c>
       <c r="H93" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>1116</v>
+      </c>
       <c r="H94" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>1085</v>
+      </c>
       <c r="H95" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H96" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>1097</v>
+      </c>
       <c r="H97" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>1097</v>
+      </c>
       <c r="H98" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>1192</v>
+      </c>
       <c r="H99" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>1192</v>
+      </c>
       <c r="H100" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>1192</v>
+      </c>
       <c r="H101" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>9</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H102" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>1335</v>
+      </c>
       <c r="H103" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H104" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H105" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>1282</v>
+      </c>
       <c r="H106" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H107" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H108" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>1104</v>
+      </c>
       <c r="H109" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H110" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H111" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>1169</v>
+      </c>
       <c r="H112" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H113" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>3</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>1228</v>
+      </c>
       <c r="H114" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H115" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H116" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H117" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H118" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H119" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H120" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>10</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H121" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>11</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H122" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H123" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>13</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H124" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>14</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H125" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>15</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H126" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H127" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H128" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>3</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G129" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H129" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G130" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H130" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>1302</v>
+      </c>
       <c r="H131" s="7" t="str">
         <f t="shared" ref="H131:H194" si="2">IF(ISBLANK($D131),"",HYPERLINK($D131,"▶"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>6</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>1302</v>
+      </c>
       <c r="H132" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>7</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>1194</v>
+      </c>
       <c r="H133" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H134" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G135" s="32" t="s">
+        <v>1391</v>
+      </c>
       <c r="H135" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>1</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G136" s="32" t="s">
+        <v>1088</v>
+      </c>
       <c r="H136" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>1186</v>
+      </c>
       <c r="H137" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>3</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G138" s="32" t="s">
+        <v>1401</v>
+      </c>
       <c r="H138" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>1091</v>
+      </c>
       <c r="H139" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H140" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H141" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H142" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H143" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H144" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
